--- a/Var.xlsx
+++ b/Var.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structs" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Var.xlsx
+++ b/Var.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Structs" sheetId="1" r:id="rId1"/>
     <sheet name="Vars" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Structs</t>
   </si>
@@ -72,6 +73,72 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>Param3</t>
+  </si>
+  <si>
+    <t>Param4</t>
+  </si>
+  <si>
+    <t>Param5</t>
+  </si>
+  <si>
+    <t>Param6</t>
+  </si>
+  <si>
+    <t>Param7</t>
+  </si>
+  <si>
+    <t>Param8</t>
+  </si>
+  <si>
+    <t>PT14</t>
+  </si>
+  <si>
+    <t>HiLim</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24346</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24347</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24348</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24349</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24350</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24351</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24352</t>
+  </si>
+  <si>
+    <t>PT1__1_LowLim24353</t>
+  </si>
+  <si>
+    <t>Parameter_Set_Number</t>
+  </si>
+  <si>
+    <t>ScreenID</t>
   </si>
 </sst>
 </file>
@@ -414,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -526,6 +593,248 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,8 +883,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -921,7 +1248,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,94 +1314,314 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="14">
+        <v>4000</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
